--- a/BackTest/2020-01-11 BackTest XRP.xlsx
+++ b/BackTest/2020-01-11 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>40875.68124537999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>42883.02524537998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>10391.74804537998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-5039749.769637369</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-4999027.997037368</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-4999027.997037368</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-4938157.502937368</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-4936709.791737368</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-4936709.791737368</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-4989432.396937368</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-4999694.053037369</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-4999694.053037369</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-4999660.034145148</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4999660.034145148</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4963201.684045148</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-4963201.684045148</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-4912279.691745148</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-4869400.023509538</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-4735590.022409538</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-4771144.138309537</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4771144.138309537</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-4771154.357209537</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-4771141.483609538</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4786320.757363528</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4786320.757363528</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4777343.143763528</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4791306.847163528</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-4790941.611763529</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-4872110.596063528</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-4894499.167463528</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-4894499.167463528</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-4894499.167463528</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-4874603.664863528</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4875033.809363528</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-4905676.008863528</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-4953951.763663528</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-4949533.605763528</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-4967038.897363529</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-4979360.801863529</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-4987360.801863529</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-4979396.801863529</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-4979129.257463529</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-5048596.397950149</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-5050609.386950149</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-5050575.186950149</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-5204251.925150149</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-5204251.925150149</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-5222036.624050149</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-5222762.337450149</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-5215744.574450148</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-5325220.139273694</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-5217203.340973694</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-5239010.116044924</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-5243700.809643974</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-5261574.950543974</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-5239757.296268864</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-5244239.744468864</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-5207361.796268864</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-5130969.940640094</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-5130969.940640094</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-5130969.940640094</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-5130489.130740094</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-5148232.160155924</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-5148232.160155924</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-5236824.581555924</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-5236714.278655925</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-5236714.278655925</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-5251979.655874735</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-5251979.655874735</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-5279431.886294285</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-5444913.720254285</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-5434334.353454285</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-5195566.288854285</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-5207602.908654286</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-5207942.986454286</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -23584,11 +23584,17 @@
         <v>-6913438.65112921</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>229.7</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23617,11 +23623,17 @@
         <v>-6913438.65112921</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>229.6</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23658,7 +23670,7 @@
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L705" t="n">
@@ -23767,11 +23779,9 @@
         <v>-6716181.74922921</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>229.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -27728,11 +27738,9 @@
         <v>-6486639.448889001</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>229.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -28026,9 +28034,11 @@
         <v>-6856745.041182732</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>229</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -28063,9 +28073,11 @@
         <v>-6719545.234182732</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>229.1</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -28100,11 +28112,9 @@
         <v>-6720432.987882732</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>229.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -28139,11 +28149,9 @@
         <v>-6720432.987882732</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
-        <v>229.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -28256,11 +28264,9 @@
         <v>-6782093.984982733</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>229.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28295,11 +28301,9 @@
         <v>-6787887.028082733</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>229.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28373,11 +28377,9 @@
         <v>-6722309.440382733</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>229.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28412,11 +28414,9 @@
         <v>-6737544.905382733</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>229.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -29465,11 +29465,9 @@
         <v>-6789934.924239743</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -29504,11 +29502,9 @@
         <v>-6872840.849839742</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>229.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29543,11 +29539,9 @@
         <v>-6872840.849839742</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29619,11 +29613,9 @@
         <v>-6804751.531065823</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>229.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -31138,11 +31130,9 @@
         <v>-7001395.013266061</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>230.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -31806,9 +31796,11 @@
         <v>-7012805.713215781</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>230</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31843,9 +31835,11 @@
         <v>-7017908.573215782</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>230</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -31880,9 +31874,11 @@
         <v>-7017908.573215782</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>229.9</v>
+      </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -31917,9 +31913,11 @@
         <v>-7132347.749861142</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>229.9</v>
+      </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -32110,9 +32108,11 @@
         <v>-7070761.740661141</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>230.6</v>
+      </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -32147,9 +32147,11 @@
         <v>-7076268.971761142</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>230.8</v>
+      </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -33701,18 +33703,16 @@
         <v>-6898808.694499739</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L974" t="n">
-        <v>1</v>
-      </c>
+      <c r="L974" t="inlineStr"/>
       <c r="M974" t="inlineStr"/>
     </row>
     <row r="975">
@@ -33742,11 +33742,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33779,11 +33775,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33816,11 +33808,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33849,15 +33837,11 @@
         <v>-6820897.899579059</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33890,11 +33874,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33927,11 +33907,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33964,11 +33940,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34001,11 +33973,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34034,15 +34002,11 @@
         <v>-6641538.800081449</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34071,15 +34035,11 @@
         <v>-6758608.288281448</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34108,15 +34068,11 @@
         <v>-6431295.530881448</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34145,15 +34101,11 @@
         <v>-6527361.772181448</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34182,15 +34134,11 @@
         <v>-6487830.288061137</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34219,15 +34167,11 @@
         <v>-6487830.288061137</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34256,15 +34200,11 @@
         <v>-6632169.194161138</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34293,15 +34233,11 @@
         <v>-6637169.194161138</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34330,15 +34266,11 @@
         <v>-6555634.832861138</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34367,15 +34299,11 @@
         <v>-6180782.892919818</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34404,15 +34332,11 @@
         <v>-6410365.965019818</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34441,15 +34365,11 @@
         <v>-6410365.965019818</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34478,15 +34398,11 @@
         <v>-6173860.773019819</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34515,15 +34431,11 @@
         <v>-6130526.013619819</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34552,15 +34464,11 @@
         <v>-4705866.895436659</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34593,11 +34501,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34630,11 +34534,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34667,11 +34567,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34704,11 +34600,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34741,11 +34633,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34778,11 +34666,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34815,11 +34699,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34852,11 +34732,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34889,11 +34765,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34926,11 +34798,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34963,11 +34831,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35000,11 +34864,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -35037,11 +34897,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -35074,11 +34930,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35111,11 +34963,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35148,11 +34996,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35185,11 +35029,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35222,11 +35062,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35259,11 +35095,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35296,11 +35128,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35333,11 +35161,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35370,11 +35194,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35407,11 +35227,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35444,11 +35260,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35481,11 +35293,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35518,11 +35326,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35555,11 +35359,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35592,11 +35392,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35629,11 +35425,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35662,15 +35454,11 @@
         <v>-4605176.917782729</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35699,15 +35487,11 @@
         <v>-4848768.995282728</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35736,15 +35520,11 @@
         <v>-4719771.049282728</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35773,15 +35553,11 @@
         <v>-4612597.204082727</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35814,11 +35590,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35851,11 +35623,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35888,11 +35656,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35925,11 +35689,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35962,11 +35722,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35999,11 +35755,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36036,11 +35788,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -36073,11 +35821,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -36110,11 +35854,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -36147,11 +35887,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -36184,11 +35920,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36221,11 +35953,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36258,11 +35986,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36295,11 +36019,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36332,11 +36052,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36369,11 +36085,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36406,11 +36118,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36443,11 +36151,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36480,11 +36184,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36517,11 +36217,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36554,11 +36250,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36591,11 +36283,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36628,11 +36316,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36665,11 +36349,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36702,11 +36382,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36739,11 +36415,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36776,11 +36448,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36813,11 +36481,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36850,11 +36514,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36887,11 +36547,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36924,11 +36580,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36961,11 +36613,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36998,11 +36646,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -37035,11 +36679,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -37072,11 +36712,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -37109,11 +36745,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -37146,11 +36778,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -37183,11 +36811,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -37220,11 +36844,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -37257,11 +36877,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -37294,11 +36910,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -37331,11 +36943,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -37368,11 +36976,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37405,11 +37009,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37442,11 +37042,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37479,11 +37075,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37516,11 +37108,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37553,11 +37141,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37590,11 +37174,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37627,11 +37207,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37664,11 +37240,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37701,11 +37273,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37738,11 +37306,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37775,11 +37339,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37812,11 +37372,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37849,11 +37405,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37886,11 +37438,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37919,16 +37467,14 @@
         <v>-3053894.237390888</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr"/>
+      <c r="L1088" t="n">
+        <v>1</v>
+      </c>
       <c r="M1088" t="inlineStr"/>
     </row>
     <row r="1089">
@@ -37954,7 +37500,7 @@
         <v>-3023720.862593178</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -37987,7 +37533,7 @@
         <v>-3029589.807993178</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -38020,7 +37566,7 @@
         <v>-3029589.807993178</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -38053,7 +37599,7 @@
         <v>-3042876.215593178</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -38086,7 +37632,7 @@
         <v>-2832438.068893178</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38119,7 +37665,7 @@
         <v>-2845649.747893178</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -38152,7 +37698,7 @@
         <v>-2841666.523093178</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38185,7 +37731,7 @@
         <v>-2847061.445993178</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38218,7 +37764,7 @@
         <v>-2896358.118193178</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38251,7 +37797,7 @@
         <v>-2887379.234093178</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38284,7 +37830,7 @@
         <v>-2849206.938520148</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38317,7 +37863,7 @@
         <v>-2879713.276049408</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38350,7 +37896,7 @@
         <v>-2791740.890949408</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38383,7 +37929,7 @@
         <v>-2776892.927049408</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38416,7 +37962,7 @@
         <v>-2612041.139749408</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38449,7 +37995,7 @@
         <v>-2767051.380149408</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -38482,7 +38028,7 @@
         <v>-2767051.380149408</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -38515,7 +38061,7 @@
         <v>-2692557.996849408</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -38548,7 +38094,7 @@
         <v>-2692557.996849408</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -38581,7 +38127,7 @@
         <v>-2826615.744649408</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38614,7 +38160,7 @@
         <v>-2826615.744649408</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38647,7 +38193,7 @@
         <v>-2887055.623249408</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38680,7 +38226,7 @@
         <v>-2820958.265049408</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38713,7 +38259,7 @@
         <v>-2545074.436349408</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38746,7 +38292,7 @@
         <v>-2328294.030749408</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38779,7 +38325,7 @@
         <v>-2510032.082049408</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38812,7 +38358,7 @@
         <v>-2676970.261549408</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -38845,7 +38391,7 @@
         <v>-2559051.980149408</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -38878,7 +38424,7 @@
         <v>-2559051.980149408</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -38911,7 +38457,7 @@
         <v>-2662310.765949408</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -38944,7 +38490,7 @@
         <v>-2700056.103949408</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -38977,7 +38523,7 @@
         <v>-2547382.489049408</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -39010,7 +38556,7 @@
         <v>-2678946.518349408</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39043,7 +38589,7 @@
         <v>-2771944.890849408</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39076,7 +38622,7 @@
         <v>-2771944.890849408</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39109,7 +38655,7 @@
         <v>-2697655.595349408</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39142,7 +38688,7 @@
         <v>-2719947.803949408</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39175,7 +38721,7 @@
         <v>-2589438.902749408</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39208,7 +38754,7 @@
         <v>-2572537.056649408</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39241,7 +38787,7 @@
         <v>-2572537.056649408</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39274,7 +38820,7 @@
         <v>-2587857.709949408</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39307,7 +38853,7 @@
         <v>-2655777.469849408</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39340,7 +38886,7 @@
         <v>-2659977.534249408</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39373,7 +38919,7 @@
         <v>-2765655.403449408</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -39406,7 +38952,7 @@
         <v>-2765655.403449408</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39439,7 +38985,7 @@
         <v>-2649760.052949408</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39472,7 +39018,7 @@
         <v>-2656385.175349408</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39505,7 +39051,7 @@
         <v>-2656385.175349408</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39538,7 +39084,7 @@
         <v>-2665363.424449408</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39571,7 +39117,7 @@
         <v>-2677450.322649408</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39604,7 +39150,7 @@
         <v>-2904698.296911528</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39637,7 +39183,7 @@
         <v>-2945937.255411529</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -39670,7 +39216,7 @@
         <v>-2945937.255411529</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -39703,7 +39249,7 @@
         <v>-2904352.952411529</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -39736,7 +39282,7 @@
         <v>-2905744.292211529</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -39769,7 +39315,7 @@
         <v>-2915797.865211529</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -39802,7 +39348,7 @@
         <v>-2915797.865211529</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -39835,7 +39381,7 @@
         <v>-3064841.449911529</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -39868,7 +39414,7 @@
         <v>-3123510.742911529</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -39901,7 +39447,7 @@
         <v>-3123510.742911529</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -39934,7 +39480,7 @@
         <v>-3118701.777311529</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -39967,7 +39513,7 @@
         <v>-3157742.974511528</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40000,7 +39546,7 @@
         <v>-3067593.174211528</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -40033,7 +39579,7 @@
         <v>-3067593.174211528</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -40066,7 +39612,7 @@
         <v>-3067593.174211528</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -40099,7 +39645,7 @@
         <v>-3067593.174211528</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -40132,7 +39678,7 @@
         <v>-2935903.490111528</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -40165,7 +39711,7 @@
         <v>-2935903.490111528</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -40198,7 +39744,7 @@
         <v>-2935903.490111528</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40231,7 +39777,7 @@
         <v>-2944877.059411528</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40264,7 +39810,7 @@
         <v>-2911924.723311528</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40297,7 +39843,7 @@
         <v>-2924243.009511528</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40330,7 +39876,7 @@
         <v>-2883794.614158998</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -40363,7 +39909,7 @@
         <v>-2883794.614158998</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -40396,7 +39942,7 @@
         <v>-2889969.142758998</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -40429,7 +39975,7 @@
         <v>-2985074.956958998</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -40462,7 +40008,7 @@
         <v>-2974762.501337218</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -40495,7 +40041,7 @@
         <v>-2974762.501337218</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -40528,7 +40074,7 @@
         <v>-2866920.151658998</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -40539,6 +40085,6 @@
       <c r="M1167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>